--- a/basset-scripts/celltype_metadata.xlsx
+++ b/basset-scripts/celltype_metadata.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="315">
   <si>
     <t>tissue</t>
   </si>
@@ -520,6 +520,9 @@
   </si>
   <si>
     <t>cancer</t>
+  </si>
+  <si>
+    <t>heart</t>
   </si>
   <si>
     <t>development</t>
@@ -632,6 +635,9 @@
     <t>primary tracheal epithelial cells</t>
   </si>
   <si>
+    <t>epithelial</t>
+  </si>
+  <si>
     <t>Fibroblast progeria</t>
   </si>
   <si>
@@ -641,9 +647,6 @@
     <t>prostate</t>
   </si>
   <si>
-    <t>trachea</t>
-  </si>
-  <si>
     <t>hepatic stellate cells</t>
   </si>
   <si>
@@ -668,6 +671,9 @@
     <t>fetal lung fibroblast</t>
   </si>
   <si>
+    <t>lung</t>
+  </si>
+  <si>
     <t>toe fibroblast</t>
   </si>
   <si>
@@ -702,13 +708,280 @@
   </si>
   <si>
     <t>undifferentiated embryonic stem cells</t>
+  </si>
+  <si>
+    <t>astrocytes-cerebellar</t>
+  </si>
+  <si>
+    <t>amniotic epithelial cells</t>
+  </si>
+  <si>
+    <t>astrocytes-hippocampal</t>
+  </si>
+  <si>
+    <t>astrocytes spinal cord</t>
+  </si>
+  <si>
+    <t>nervous</t>
+  </si>
+  <si>
+    <t>brain microvascular endothelial cells</t>
+  </si>
+  <si>
+    <t>cardiac fibroblasts</t>
+  </si>
+  <si>
+    <t>cardiac fibroblasts- adult atrial</t>
+  </si>
+  <si>
+    <t>cardiac myocytes</t>
+  </si>
+  <si>
+    <t>conjunctival fibroblast</t>
+  </si>
+  <si>
+    <t>eye</t>
+  </si>
+  <si>
+    <t>choroid plexus epithelial cells</t>
+  </si>
+  <si>
+    <t>colorectal carcinoma</t>
+  </si>
+  <si>
+    <t>esophageal epithelial cells</t>
+  </si>
+  <si>
+    <t>foreskin fibroblast</t>
+  </si>
+  <si>
+    <t>foreskin fibroblast cells expressing canine cMyc</t>
+  </si>
+  <si>
+    <t>gingival fibroblasts</t>
+  </si>
+  <si>
+    <t>iris pigment epithelial cells</t>
+  </si>
+  <si>
+    <t>promyelocytic leukemia cells</t>
+  </si>
+  <si>
+    <t>mammary fibroblasts</t>
+  </si>
+  <si>
+    <t>mammary</t>
+  </si>
+  <si>
+    <t>adult dermal microvascular endothelial cells</t>
+  </si>
+  <si>
+    <t>endothelial</t>
+  </si>
+  <si>
+    <t>non-pigment ciliary epithelial cells</t>
+  </si>
+  <si>
+    <t>pulmonary artery endothelial cells.</t>
+  </si>
+  <si>
+    <t>pulmonary artery fibroblasts</t>
+  </si>
+  <si>
+    <t>periodontal ligament fibroblasts</t>
+  </si>
+  <si>
+    <t>pulmonary fibroblasts isolated from lung tissue</t>
+  </si>
+  <si>
+    <t>renal cortical epithelial cells</t>
+  </si>
+  <si>
+    <t>renal</t>
+  </si>
+  <si>
+    <t>renal epithelial cells</t>
+  </si>
+  <si>
+    <t>renal glomerular endothelial cells</t>
+  </si>
+  <si>
+    <t>retinal pigment epithelial cells</t>
+  </si>
+  <si>
+    <t>villous mesenchymal fibroblast cells</t>
+  </si>
+  <si>
+    <t> T cell leukemia</t>
+  </si>
+  <si>
+    <t>monocytes</t>
+  </si>
+  <si>
+    <t>acute promyelocytic leukemia cell line</t>
+  </si>
+  <si>
+    <t>astrocytes</t>
+  </si>
+  <si>
+    <t>adult dermal fibroblasts</t>
+  </si>
+  <si>
+    <t>neonatal dermal fibroblasts</t>
+  </si>
+  <si>
+    <t>lung fibroblasts</t>
+  </si>
+  <si>
+    <t>malignant pluripotent embryonal carcinoma</t>
+  </si>
+  <si>
+    <t>pancreatic carcinoma</t>
+  </si>
+  <si>
+    <t>prostate epithelial cell line</t>
+  </si>
+  <si>
+    <t>renal proximal tubule epithelial cells</t>
+  </si>
+  <si>
+    <t>small airway epithelial cells</t>
+  </si>
+  <si>
+    <t>Skeletal muscle myosatellite cells</t>
+  </si>
+  <si>
+    <t>muscle</t>
+  </si>
+  <si>
+    <t>neuroepithelioma</t>
+  </si>
+  <si>
+    <t>primary Th2 T cells</t>
+  </si>
+  <si>
+    <t>retinoblastoma</t>
+  </si>
+  <si>
+    <t>embryonic lung fibroblast cells</t>
+  </si>
+  <si>
+    <t>lung carcinoma </t>
+  </si>
+  <si>
+    <t>embryonic stem cells</t>
+  </si>
+  <si>
+    <t>HeLA</t>
+  </si>
+  <si>
+    <t>mammary epithelial cells</t>
+  </si>
+  <si>
+    <t>skeletal muscle myoblasts</t>
+  </si>
+  <si>
+    <t>umbilical vein endothelial cells</t>
+  </si>
+  <si>
+    <t>leukemia</t>
+  </si>
+  <si>
+    <t>prostate adenocarcinoma,</t>
+  </si>
+  <si>
+    <t>breast cancer</t>
+  </si>
+  <si>
+    <t>epidermal keratinocytes</t>
+  </si>
+  <si>
+    <t>keratinocytes</t>
+  </si>
+  <si>
+    <t>th1 cells</t>
+  </si>
+  <si>
+    <t>neural stem cells</t>
+  </si>
+  <si>
+    <t>ipsc</t>
+  </si>
+  <si>
+    <t>neural progenitor</t>
+  </si>
+  <si>
+    <t>mesendoderm</t>
+  </si>
+  <si>
+    <t>mesenchymal stem cells</t>
+  </si>
+  <si>
+    <t>T cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T cell </t>
+  </si>
+  <si>
+    <t>hematopoietic stem cells</t>
+  </si>
+  <si>
+    <t>B cells</t>
+  </si>
+  <si>
+    <t>killer T cells</t>
+  </si>
+  <si>
+    <t>foreskin</t>
+  </si>
+  <si>
+    <t>keratinocyte</t>
+  </si>
+  <si>
+    <t>breast</t>
+  </si>
+  <si>
+    <t>fetal thymus</t>
+  </si>
+  <si>
+    <t>fetal brain</t>
+  </si>
+  <si>
+    <t>Psoas Muscle</t>
+  </si>
+  <si>
+    <t>fetal muscle</t>
+  </si>
+  <si>
+    <t>fetal heart</t>
+  </si>
+  <si>
+    <t>fetal stomach</t>
+  </si>
+  <si>
+    <t>fetal small intestine</t>
+  </si>
+  <si>
+    <t>fetal large intestine</t>
+  </si>
+  <si>
+    <t>small intestine</t>
+  </si>
+  <si>
+    <t>GI</t>
+  </si>
+  <si>
+    <t>gastric</t>
+  </si>
+  <si>
+    <t>fetal kidney</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -768,6 +1041,11 @@
       <color rgb="FF403C36"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Courier"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -786,7 +1064,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="145">
+  <cellStyleXfs count="425">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -932,16 +1210,297 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="145">
+  <cellStyles count="425">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1014,6 +1573,146 @@
     <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="372" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="374" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="376" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="378" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="380" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="382" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="384" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="386" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="388" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="390" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="392" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="394" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="396" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="398" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="400" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="402" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="404" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="406" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="408" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="410" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="412" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="414" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="416" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="418" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="420" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="422" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="424" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1086,6 +1785,146 @@
     <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="331" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="333" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="335" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="337" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="339" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="341" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="343" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="345" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="347" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="349" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="351" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="353" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="355" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="357" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="359" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="361" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="363" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="365" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="367" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="369" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="371" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="373" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="375" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="377" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="379" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="381" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="383" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="385" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="387" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="389" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="391" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="393" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="395" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="397" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="399" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="401" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="403" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="405" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="407" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="409" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="411" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="413" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="415" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="417" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="419" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="421" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="423" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1417,8 +2256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C161" sqref="C161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1459,7 +2298,7 @@
         <v>163</v>
       </c>
       <c r="C3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1470,7 +2309,7 @@
         <v>164</v>
       </c>
       <c r="C4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1478,7 +2317,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C5" t="s">
         <v>166</v>
@@ -1489,10 +2328,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1500,10 +2339,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1511,7 +2350,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C8" t="s">
         <v>166</v>
@@ -1522,10 +2361,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1533,10 +2372,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1544,10 +2383,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1555,10 +2394,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1566,10 +2405,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C13" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1577,10 +2416,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1588,10 +2427,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1599,10 +2438,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C16" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1610,10 +2449,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C17" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1621,10 +2460,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C18" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1632,10 +2471,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C19" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1643,10 +2482,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C20" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1654,7 +2493,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C21" t="s">
         <v>166</v>
@@ -1665,7 +2504,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C22" t="s">
         <v>166</v>
@@ -1676,10 +2515,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C23" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17">
@@ -1687,10 +2526,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C24" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17">
@@ -1698,10 +2537,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C25" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1709,7 +2548,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C26" t="s">
         <v>166</v>
@@ -1720,7 +2559,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C27" t="s">
         <v>166</v>
@@ -1731,7 +2570,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C28" t="s">
         <v>166</v>
@@ -1742,10 +2581,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C29" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1753,10 +2592,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C30" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1764,10 +2603,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C31" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1775,10 +2614,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C32" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1786,10 +2625,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C33" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1797,10 +2636,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C34" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1808,10 +2647,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C35" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1819,10 +2658,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C36" t="s">
         <v>201</v>
-      </c>
-      <c r="C36" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1830,10 +2669,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C37" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1841,7 +2680,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C38" t="s">
         <v>166</v>
@@ -1852,10 +2691,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C39" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1863,10 +2702,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C40" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1874,10 +2713,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C41" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1885,10 +2724,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C42" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1896,10 +2735,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C43" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1907,10 +2746,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C44" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1918,10 +2757,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C45" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1929,10 +2768,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C46" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1940,10 +2779,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C47" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1951,7 +2790,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C48" t="s">
         <v>166</v>
@@ -1962,10 +2801,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C49" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1973,7 +2812,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C50" t="s">
         <v>166</v>
@@ -1984,10 +2823,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C51" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1995,10 +2834,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C52" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2006,7 +2845,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C53" t="s">
         <v>166</v>
@@ -2017,10 +2856,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C54" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2028,10 +2867,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C55" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2039,10 +2878,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C56" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2050,525 +2889,1143 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C57" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>57</v>
       </c>
+      <c r="B58" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C58" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>58</v>
       </c>
+      <c r="B59" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C59" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>59</v>
       </c>
+      <c r="B60" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C60" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>60</v>
       </c>
+      <c r="B61" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C61" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>61</v>
       </c>
+      <c r="B62" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C62" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>62</v>
       </c>
+      <c r="B63" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C63" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
+      <c r="B64" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C64" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
+      <c r="B65" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C65" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1">
+      <c r="B66" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C66" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:1">
+      <c r="B67" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C67" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:1">
+      <c r="B68" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C68" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:1">
+      <c r="B69" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C69" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:1">
+      <c r="B70" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C70" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:1">
+      <c r="B71" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C71" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:1">
+      <c r="B72" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C72" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:1">
+      <c r="B73" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C73" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:1">
+      <c r="B74" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C74" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:1">
+      <c r="B75" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C75" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:1">
+      <c r="B76" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C76" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:1">
+      <c r="B77" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C77" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:1">
+      <c r="B78" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C78" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:1">
+      <c r="B79" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C79" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1">
+      <c r="B80" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C80" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1">
+      <c r="B81" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C81" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:1">
+      <c r="B82" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C82" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:1">
+      <c r="B83" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C83" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:1">
+      <c r="B84" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C84" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:1">
+      <c r="B85" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C85" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:1">
+      <c r="B86" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C86" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:1">
+      <c r="B87" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C87" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:1">
+      <c r="B88" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C88" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:1">
+      <c r="B89" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C89" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:1">
+      <c r="B90" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C90" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:1">
+      <c r="B91" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C91" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:1">
+      <c r="B92" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C92" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:1">
+      <c r="B93" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C93" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:1">
+      <c r="B94" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C94" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:1">
+      <c r="B95" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C95" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:1">
+      <c r="B96" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C96" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:1">
+      <c r="B97" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C97" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:1">
+      <c r="B98" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C98" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
       <c r="A99" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:1">
+      <c r="B99" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C99" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
       <c r="A100" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:1">
+      <c r="B100" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C100" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:1">
+      <c r="B101" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C101" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
       <c r="A102" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:1">
+      <c r="B102" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C102" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
       <c r="A103" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:1">
+      <c r="B103" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C103" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
       <c r="A104" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:1">
+      <c r="B104" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C104" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
       <c r="A105" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:1">
+      <c r="B105" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C105" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
       <c r="A106" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:1">
+      <c r="B106" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C106" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
       <c r="A107" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:1">
+      <c r="B107" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C107" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
       <c r="A108" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:1">
+      <c r="B108" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C108" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
       <c r="A109" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:1">
+      <c r="B109" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C109" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
       <c r="A110" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:1">
+      <c r="B110" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C110" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
       <c r="A111" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:1">
+      <c r="B111" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C111" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
       <c r="A112" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:1">
+      <c r="B112" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C112" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
       <c r="A113" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:1">
+      <c r="B113" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C113" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
       <c r="A114" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:1">
+      <c r="B114" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C114" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
       <c r="A115" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:1">
+      <c r="B115" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C115" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
       <c r="A116" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:1">
+      <c r="B116" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C116" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
       <c r="A117" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:1">
+      <c r="B117" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C117" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
       <c r="A118" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:1">
+      <c r="B118" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C118" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
       <c r="A119" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:1">
+      <c r="B119" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C119" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
       <c r="A120" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:1">
+      <c r="B120" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C120" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
       <c r="A121" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:1">
+      <c r="B121" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C121" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
       <c r="A122" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:1">
+      <c r="B122" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C122" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
       <c r="A123" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:1">
+      <c r="B123" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C123" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
       <c r="A124" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:1">
+      <c r="B124" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C124" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
       <c r="A125" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:1">
+      <c r="B125" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C125" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
       <c r="A126" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="1:1">
+      <c r="B126" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C126" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
       <c r="A127" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="128" spans="1:1">
+      <c r="B127" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C127" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
       <c r="A128" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:1">
+      <c r="B128" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C128" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
       <c r="A129" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="130" spans="1:1">
+      <c r="B129" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C129" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
       <c r="A130" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="131" spans="1:1">
+      <c r="B130" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C130" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
       <c r="A131" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="132" spans="1:1">
+      <c r="B131" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C131" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
       <c r="A132" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="133" spans="1:1">
+      <c r="B132" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C132" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
       <c r="A133" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="134" spans="1:1">
+      <c r="B133" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C133" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
       <c r="A134" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="135" spans="1:1">
+      <c r="B134" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C134" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
       <c r="A135" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="136" spans="1:1">
+      <c r="B135" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C135" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
       <c r="A136" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="137" spans="1:1">
+      <c r="B136" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C136" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
       <c r="A137" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="138" spans="1:1">
+      <c r="B137" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C137" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
       <c r="A138" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="139" spans="1:1">
+      <c r="B138" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C138" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
       <c r="A139" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="140" spans="1:1">
+      <c r="B139" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="C139" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
       <c r="A140" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="141" spans="1:1">
+      <c r="B140" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="C140" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
       <c r="A141" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="142" spans="1:1">
+      <c r="B141" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C141" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
       <c r="A142" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="143" spans="1:1">
+      <c r="B142" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C142" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
       <c r="A143" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="144" spans="1:1">
+      <c r="B143" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C143" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
       <c r="A144" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="145" spans="1:1">
+      <c r="B144" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C144" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
       <c r="A145" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="146" spans="1:1">
+      <c r="B145" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C145" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
       <c r="A146" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="147" spans="1:1">
+      <c r="B146" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C146" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
       <c r="A147" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="148" spans="1:1">
+      <c r="B147" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C147" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
       <c r="A148" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="149" spans="1:1">
+      <c r="B148" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C148" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
       <c r="A149" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="150" spans="1:1">
+      <c r="B149" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C149" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
       <c r="A150" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="151" spans="1:1">
+      <c r="B150" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C150" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
       <c r="A151" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="152" spans="1:1">
+      <c r="B151" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="C151" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
       <c r="A152" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="153" spans="1:1">
+      <c r="B152" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C152" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
       <c r="A153" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="154" spans="1:1">
+      <c r="B153" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C153" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
       <c r="A154" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="155" spans="1:1">
+      <c r="B154" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C154" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
       <c r="A155" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="156" spans="1:1">
+      <c r="B155" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C155" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
       <c r="A156" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="157" spans="1:1">
+      <c r="B156" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C156" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
       <c r="A157" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="158" spans="1:1">
+      <c r="B157" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C157" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
       <c r="A158" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="159" spans="1:1">
+      <c r="B158" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C158" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
       <c r="A159" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="160" spans="1:1">
+      <c r="B159" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C159" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
       <c r="A160" t="s">
         <v>159</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C160" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/basset-scripts/celltype_metadata.xlsx
+++ b/basset-scripts/celltype_metadata.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="314">
   <si>
     <t>tissue</t>
   </si>
@@ -502,9 +502,6 @@
   </si>
   <si>
     <t>tissue_dept</t>
-  </si>
-  <si>
-    <t>color</t>
   </si>
   <si>
     <t>pancreas adenocarcinoma</t>
@@ -1064,8 +1061,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="425">
+  <cellStyleXfs count="429">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1500,7 +1501,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="425">
+  <cellStyles count="429">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1713,6 +1714,8 @@
     <cellStyle name="Followed Hyperlink" xfId="420" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="422" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="424" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="426" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="428" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1925,6 +1928,8 @@
     <cellStyle name="Hyperlink" xfId="419" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="421" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="423" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="425" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="427" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2256,8 +2261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C161" sqref="C161"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2272,22 +2277,20 @@
       <c r="B1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>161</v>
-      </c>
+      <c r="C1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2295,10 +2298,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2306,10 +2309,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2317,10 +2320,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2328,10 +2331,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2339,10 +2342,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2350,10 +2353,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2361,10 +2364,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2372,10 +2375,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2383,10 +2386,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2394,10 +2397,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2405,10 +2408,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2416,10 +2419,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2427,10 +2430,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2438,10 +2441,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" t="s">
         <v>175</v>
-      </c>
-      <c r="C16" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2449,10 +2452,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2460,10 +2463,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2471,10 +2474,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2482,10 +2485,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2493,10 +2496,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2504,10 +2507,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2515,10 +2518,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17">
@@ -2526,10 +2529,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C24" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17">
@@ -2537,10 +2540,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2548,10 +2551,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2559,10 +2562,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2570,10 +2573,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C28" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2581,10 +2584,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C29" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2592,10 +2595,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C30" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2603,10 +2606,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2614,10 +2617,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2625,10 +2628,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2636,10 +2639,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C34" t="s">
         <v>200</v>
-      </c>
-      <c r="C34" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2647,10 +2650,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C35" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2658,10 +2661,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C36" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2669,10 +2672,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C37" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2680,10 +2683,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2691,10 +2694,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C39" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2702,10 +2705,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C40" t="s">
         <v>208</v>
-      </c>
-      <c r="C40" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2713,10 +2716,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C41" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2724,10 +2727,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C42" t="s">
         <v>210</v>
-      </c>
-      <c r="C42" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2735,10 +2738,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C43" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2746,10 +2749,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C44" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2757,10 +2760,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C45" t="s">
         <v>215</v>
-      </c>
-      <c r="C45" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2768,10 +2771,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C46" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2779,10 +2782,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C47" t="s">
         <v>218</v>
-      </c>
-      <c r="C47" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2790,10 +2793,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C48" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2801,10 +2804,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C49" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2812,10 +2815,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2823,10 +2826,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C51" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2834,10 +2837,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C52" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2845,10 +2848,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C53" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2856,10 +2859,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C54" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2867,10 +2870,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C55" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2878,10 +2881,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C56" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2889,10 +2892,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C57" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2900,10 +2903,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C58" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2911,10 +2914,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C59" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2922,10 +2925,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C60" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2933,10 +2936,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C61" t="s">
         <v>229</v>
-      </c>
-      <c r="C61" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2944,10 +2947,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C62" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2955,10 +2958,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C63" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2966,10 +2969,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C64" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2977,10 +2980,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C65" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2988,10 +2991,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C66" t="s">
         <v>235</v>
-      </c>
-      <c r="C66" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2999,10 +3002,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C67" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -3010,10 +3013,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C68" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -3021,10 +3024,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C69" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -3032,10 +3035,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C70" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -3043,10 +3046,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C71" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -3054,10 +3057,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C72" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -3065,10 +3068,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C73" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -3076,10 +3079,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C74" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -3087,10 +3090,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C75" t="s">
         <v>245</v>
-      </c>
-      <c r="C75" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -3098,10 +3101,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C76" t="s">
         <v>247</v>
-      </c>
-      <c r="C76" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -3109,10 +3112,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C77" t="s">
         <v>247</v>
-      </c>
-      <c r="C77" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -3120,10 +3123,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C78" t="s">
         <v>247</v>
-      </c>
-      <c r="C78" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -3131,10 +3134,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C79" t="s">
         <v>247</v>
-      </c>
-      <c r="C79" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -3142,10 +3145,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C80" t="s">
         <v>247</v>
-      </c>
-      <c r="C80" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -3153,10 +3156,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C81" t="s">
         <v>247</v>
-      </c>
-      <c r="C81" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -3164,10 +3167,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C82" t="s">
         <v>247</v>
-      </c>
-      <c r="C82" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -3175,10 +3178,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C83" t="s">
         <v>247</v>
-      </c>
-      <c r="C83" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -3186,10 +3189,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C84" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -3197,10 +3200,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C85" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -3208,10 +3211,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C86" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -3219,10 +3222,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C87" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -3230,10 +3233,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C88" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -3241,10 +3244,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C89" t="s">
         <v>254</v>
-      </c>
-      <c r="C89" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -3252,10 +3255,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C90" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -3263,10 +3266,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C91" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -3274,10 +3277,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C92" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -3285,10 +3288,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C93" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -3296,10 +3299,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C94" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -3307,10 +3310,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C95" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -3318,10 +3321,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C96" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -3329,10 +3332,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C97" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -3340,10 +3343,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C98" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -3351,10 +3354,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C99" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -3362,10 +3365,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C100" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -3373,10 +3376,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C101" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -3384,10 +3387,10 @@
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C102" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -3395,10 +3398,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C103" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -3406,10 +3409,10 @@
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C104" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -3417,10 +3420,10 @@
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C105" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -3428,10 +3431,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C106" t="s">
         <v>272</v>
-      </c>
-      <c r="C106" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -3439,10 +3442,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C107" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -3450,10 +3453,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C108" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -3461,10 +3464,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C109" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -3472,10 +3475,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C110" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -3483,10 +3486,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C111" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -3494,10 +3497,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C112" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -3505,10 +3508,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C113" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -3516,10 +3519,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C114" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -3527,10 +3530,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C115" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -3538,10 +3541,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C116" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -3549,10 +3552,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C117" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -3560,10 +3563,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C118" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -3571,10 +3574,10 @@
         <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C119" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -3582,10 +3585,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C120" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -3593,10 +3596,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C121" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -3604,10 +3607,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C122" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -3615,10 +3618,10 @@
         <v>122</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C123" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -3626,10 +3629,10 @@
         <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C124" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -3637,10 +3640,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C125" t="s">
         <v>287</v>
-      </c>
-      <c r="C125" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -3648,10 +3651,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C126" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -3659,10 +3662,10 @@
         <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C127" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -3670,10 +3673,10 @@
         <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C128" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -3681,10 +3684,10 @@
         <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C129" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -3692,10 +3695,10 @@
         <v>129</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C130" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -3703,10 +3706,10 @@
         <v>130</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C131" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -3714,10 +3717,10 @@
         <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C132" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -3725,10 +3728,10 @@
         <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C133" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -3736,10 +3739,10 @@
         <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C134" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -3747,10 +3750,10 @@
         <v>134</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C135" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -3758,10 +3761,10 @@
         <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C136" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -3769,10 +3772,10 @@
         <v>136</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C137" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -3780,10 +3783,10 @@
         <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C138" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -3791,10 +3794,10 @@
         <v>138</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C139" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -3802,10 +3805,10 @@
         <v>139</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C140" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -3813,10 +3816,10 @@
         <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C141" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -3824,10 +3827,10 @@
         <v>141</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C142" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -3835,10 +3838,10 @@
         <v>142</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C143" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -3846,10 +3849,10 @@
         <v>143</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C144" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -3857,10 +3860,10 @@
         <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C145" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -3868,10 +3871,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C146" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -3879,10 +3882,10 @@
         <v>146</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C147" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -3890,10 +3893,10 @@
         <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C148" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -3901,10 +3904,10 @@
         <v>148</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C149" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -3912,10 +3915,10 @@
         <v>149</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C150" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3923,10 +3926,10 @@
         <v>150</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C151" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -3934,10 +3937,10 @@
         <v>151</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C152" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -3945,10 +3948,10 @@
         <v>152</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C153" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -3956,10 +3959,10 @@
         <v>153</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C154" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -3967,10 +3970,10 @@
         <v>154</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C155" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -3978,10 +3981,10 @@
         <v>155</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C156" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -3989,10 +3992,10 @@
         <v>156</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C157" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -4000,10 +4003,10 @@
         <v>157</v>
       </c>
       <c r="B158" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C158" t="s">
         <v>311</v>
-      </c>
-      <c r="C158" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -4011,10 +4014,10 @@
         <v>158</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C159" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -4022,10 +4025,10 @@
         <v>159</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C160" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
